--- a/evaluations/2.3.xlsx
+++ b/evaluations/2.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="9800" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.3.csv" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>lower</t>
   </si>
   <si>
     <t>upper</t>
+  </si>
+  <si>
+    <t>Number of courses have score above average</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.csv'!$A$1:$A$2</c:f>
+              <c:f>'2.3.csv'!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -112,7 +115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.csv'!$B$1:$B$2</c:f>
+              <c:f>'2.3.csv'!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -135,11 +138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107329944"/>
-        <c:axId val="2126688856"/>
+        <c:axId val="2120238472"/>
+        <c:axId val="2120978264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107329944"/>
+        <c:axId val="2120238472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -148,7 +151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126688856"/>
+        <c:crossAx val="2120978264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -156,7 +159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126688856"/>
+        <c:axId val="2120978264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -167,7 +170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107329944"/>
+        <c:crossAx val="2120238472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -195,13 +198,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -546,27 +549,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>85</v>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>163</v>
       </c>
     </row>

--- a/evaluations/2.3.xlsx
+++ b/evaluations/2.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.3.csv" sheetId="1" r:id="rId1"/>
@@ -138,11 +138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120238472"/>
-        <c:axId val="2120978264"/>
+        <c:axId val="2073099224"/>
+        <c:axId val="2073136264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120238472"/>
+        <c:axId val="2073099224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -151,7 +151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120978264"/>
+        <c:crossAx val="2073136264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -159,27 +159,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120978264"/>
+        <c:axId val="2073136264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of courses have score above average</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120238472"/>
+        <c:crossAx val="2073099224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -202,10 +216,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -552,7 +566,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
